--- a/Unit_02/Assignment/Formulation.xlsx
+++ b/Unit_02/Assignment/Formulation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA326A60-F01C-4374-B227-6CBFCB786BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F02159F-B4A9-4366-843B-E7E00A5224F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,37 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Formulation!$F$3:$K$3</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Formulation!$M$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Formulation!$M$8</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Formulation!$M$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Formulation!$F$3:$K$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Formulation!$G$3:$J$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Formulation!$J$3:$J$3</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Formulation!$M$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Formulation!$M$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Formulation!$M$9</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Formulation!$J$34</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Formulation!$O$3</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Formulation!$O$10</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Formulation!$O$8</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Formulation!$O$9</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">binary</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Formulation!$O$10</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Formulation!$O$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">Formulation!$O$9</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -145,7 +154,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +202,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -214,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,13 +272,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,9 +369,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -554,41 +672,40 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -596,25 +713,25 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>1000000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>200000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>300000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>400000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="11">
         <v>450000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="11">
         <v>450000</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -622,25 +739,25 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <v>500000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="14">
         <v>150000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="14">
         <v>300000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="14">
         <v>250000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="14">
         <v>100000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="14">
         <v>100000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="15">
         <v>1800000</v>
       </c>
     </row>
@@ -648,25 +765,25 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>700</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="14">
         <v>250</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <v>200</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="14">
         <v>300</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <v>400</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <v>400</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="15">
         <v>1500</v>
       </c>
     </row>
@@ -674,25 +791,25 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="16">
         <v>200</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="17">
         <v>100</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="17">
         <v>1000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="17">
         <v>1000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="18">
         <v>1200</v>
       </c>
     </row>
@@ -706,7 +823,7 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +836,7 @@
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,16 +865,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
@@ -772,7 +890,7 @@
       </c>
       <c r="O3" s="7">
         <f>SUMPRODUCT(F4:K4,F3:K3)</f>
-        <v>2850000</v>
+        <v>2150000</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -819,22 +937,22 @@
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -861,9 +979,9 @@
       <c r="K8" s="5">
         <v>100000</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f>SUMPRODUCT(F8:K8,F$3:K$3)</f>
-        <v>1750000</v>
+        <v>1300000</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>23</v>
@@ -895,9 +1013,9 @@
       <c r="K9" s="5">
         <v>400</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <f>SUMPRODUCT(F9:K9,F$3:K$3)</f>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>23</v>
@@ -929,9 +1047,9 @@
       <c r="K10" s="5">
         <v>1000</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <f>SUMPRODUCT(F10:K10,F$3:K$3)</f>
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>23</v>
@@ -942,34 +1060,10 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f>SUMPRODUCT(F11:K11,F$3:K$3)</f>
-        <v>7</v>
-      </c>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f>SUMPRODUCT(F12:K12,F$3:K$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
+      <c r="N12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
